--- a/ZDD Bb4A Convertingtestcases.xlsx
+++ b/ZDD Bb4A Convertingtestcases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPA\01 CPR101\CPR V2 FINAL PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPA\01 CPR101\cpr v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE992EC-9798-4FCC-B19E-6CB70D6B0D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A696A725-2251-4711-905F-0255F2A84B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="87">
   <si>
     <t>Comments</t>
   </si>
@@ -1168,10 +1168,6 @@
     <t>Sample Test Cases</t>
   </si>
   <si>
-    <t>????? Tester's Name ?????
-????? Date ?????</t>
-  </si>
-  <si>
     <t>Converting</t>
   </si>
   <si>
@@ -1337,6 +1333,49 @@
   </si>
   <si>
     <t xml:space="preserve">positive   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** Start of Indexing Strings Demo ***                             Type an int numeric string (q - to quit):
+0
+Converted number is 0                                                                                                                          *** End of Indexing Strings Demo ***    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type an int numeric string (g - to quit):
+abcdef
+Converted number is 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"abcdef"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type an int numeric string (g - to quit):
+1.5578686
+Converted number is 1
+</t>
+  </si>
+  <si>
+    <t>"1.5578686"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type an int numeric string (q - to quit):
+0
+Converted number is 0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type an int numeric string (g - to quit):
+214743648
+Converted number is -214743648
+</t>
+  </si>
+  <si>
+    <t>"214743648"</t>
+  </si>
+  <si>
+    <t>Drashti desai 
+11 August 2023</t>
   </si>
 </sst>
 </file>
@@ -2440,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2460,7 +2499,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="49" t="str">
         <f>"Save_as_Converting_test_cases.xlsx"</f>
@@ -2483,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2511,109 +2550,109 @@
     </row>
     <row r="4" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="23"/>
       <c r="F5" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="145.19999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="23"/>
       <c r="F6" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>45</v>
-      </c>
       <c r="C7" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F7" s="25" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="23"/>
       <c r="F8" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
@@ -2637,7 +2676,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2665,16 +2704,16 @@
     </row>
     <row r="12" spans="1:7" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="25" t="s">
@@ -2689,16 +2728,16 @@
     </row>
     <row r="14" spans="1:7" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="25" t="s">
@@ -2707,16 +2746,16 @@
     </row>
     <row r="15" spans="1:7" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="25" t="s">
@@ -2725,16 +2764,16 @@
     </row>
     <row r="16" spans="1:7" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="25" t="s">
@@ -2743,19 +2782,19 @@
     </row>
     <row r="17" spans="1:7" ht="197.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>7</v>
@@ -2773,7 +2812,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2799,35 +2838,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="F20" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="105.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="F21" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+      <c r="F22" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
+      <c r="F23" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
